--- a/monster.xlsx
+++ b/monster.xlsx
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
